--- a/updated_data.xlsx
+++ b/updated_data.xlsx
@@ -1696,7 +1696,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1710,9 +1710,6 @@
           <t>(для женщин- гинеколог</t>
         </is>
       </c>
-      <c r="B1" t="n">
-        <v>64</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1720,9 +1717,6 @@
           <t>Rg ОГК</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1730,9 +1724,6 @@
           <t>ИТОГО</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1740,9 +1731,6 @@
           <t>Исследование уровня ретикулоцитов</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1750,9 +1738,6 @@
           <t>Исследование уровня ретикулоцитов в крови</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1760,9 +1745,6 @@
           <t>Исследования</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>138</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1770,9 +1752,6 @@
           <t>ММГ</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>36</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1780,9 +1759,6 @@
           <t>Мазок на онкоцитологию</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>64</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1790,9 +1766,6 @@
           <t>Мазок на флору</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>64</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1800,9 +1773,6 @@
           <t>ОАК с лейкоформулой</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>138</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1810,9 +1780,6 @@
           <t>ОАМ</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>138</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1820,9 +1787,6 @@
           <t>ООО "Маяк-Техноцелл" (выезд 24-25 апреля)</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1830,9 +1794,6 @@
           <t>Перечень услуг</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1840,9 +1801,6 @@
           <t>Психофизиологическое исследование</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1850,9 +1808,6 @@
           <t>Пульсоксиметрия</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>24</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1860,9 +1815,6 @@
           <t>Специалисты</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>138</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1870,9 +1822,6 @@
           <t>УЗИ органов брюшной полости</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1880,9 +1829,6 @@
           <t>УЗИ органов малого таза)</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>64</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1890,9 +1836,6 @@
           <t>УЗИ щитовидной железы</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1900,9 +1843,6 @@
           <t>ФЛГ</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>159</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1910,9 +1850,6 @@
           <t>ЭКГ</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>138</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1920,9 +1857,6 @@
           <t>аудиометрия</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>79</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1930,9 +1864,6 @@
           <t>биомикроскопия глаза</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>95</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1940,9 +1871,6 @@
           <t>визометрия (острота зрения)</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>88</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1950,9 +1878,6 @@
           <t>глюкоза крови</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>138</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1960,9 +1885,6 @@
           <t>дерматовенеролог</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>92</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1970,9 +1892,6 @@
           <t>заключение</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>138</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1980,9 +1899,6 @@
           <t>исследование функции вестибулярного аппарата</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>79</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1990,9 +1906,6 @@
           <t>исследование цветоощущения</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>24</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2000,9 +1913,6 @@
           <t>нарколог</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>138</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2010,9 +1920,6 @@
           <t>невролог</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>138</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2020,9 +1927,6 @@
           <t>оториноларинголог</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>109</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2030,9 +1934,6 @@
           <t>офтальмолог</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>111</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2040,9 +1941,6 @@
           <t>офтальмоскопия глазного дна</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>36</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2050,9 +1948,6 @@
           <t>паллестезиметрия</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2060,9 +1955,6 @@
           <t>периметрия</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>52</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2070,9 +1962,6 @@
           <t>психиатр</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>138</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2080,9 +1969,6 @@
           <t>рефрактометрия (или скиаскопия)</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>22</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2090,9 +1976,6 @@
           <t>спирометрия</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>24</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2100,9 +1983,6 @@
           <t>терапевт</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>138</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2110,9 +1990,6 @@
           <t>тонометрия</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>24</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2120,9 +1997,6 @@
           <t>тромбоцитов в крови</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2130,9 +2004,6 @@
           <t>хирург</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>41</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2140,18 +2011,12 @@
           <t>хирург Исследования</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
           <t>холестерин крови</t>
         </is>
-      </c>
-      <c r="B45" t="n">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
